--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hms-bit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Vino\Bit\18\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table name" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'table name'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="164">
   <si>
     <t>'</t>
   </si>
@@ -494,6 +493,36 @@
   </si>
   <si>
     <t>dob</t>
+  </si>
+  <si>
+    <t>bookingroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">booking_no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chkin_date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chkout_date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modified_date </t>
+  </si>
+  <si>
+    <t>guest_id</t>
+  </si>
+  <si>
+    <t>mofified_By</t>
+  </si>
+  <si>
+    <t>room_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bookingno </t>
   </si>
 </sst>
 </file>
@@ -852,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,9 +893,11 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -885,11 +916,14 @@
       <c r="F1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -908,11 +942,11 @@
       <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -931,11 +965,11 @@
       <c r="F3" t="s">
         <v>144</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -954,11 +988,11 @@
       <c r="F4" t="s">
         <v>145</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -977,11 +1011,11 @@
       <c r="F5" t="s">
         <v>146</v>
       </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1000,11 +1034,11 @@
       <c r="F6" t="s">
         <v>147</v>
       </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1020,11 +1054,11 @@
       <c r="F7" t="s">
         <v>148</v>
       </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1034,11 +1068,11 @@
       <c r="F8" t="s">
         <v>149</v>
       </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1048,11 +1082,11 @@
       <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1062,35 +1096,29 @@
       <c r="F10" t="s">
         <v>150</v>
       </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
         <v>151</v>
       </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>152</v>
       </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G13">
+    <sortCondition ref="G1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1098,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1199,7 @@
     </row>
     <row r="2" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1190,7 +1218,7 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>B2&amp;A2&amp;B2&amp;C2&amp;D2&amp;A2&amp;F2&amp;G2</f>
-        <v>'id'=&gt;$this-&gt;input-&gt;post('id'),</v>
+        <v>'title'=&gt;$this-&gt;input-&gt;post('title'),</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>5</v>
@@ -1204,7 +1232,7 @@
       </c>
       <c r="M2" s="4" t="str">
         <f t="shared" ref="M2:M9" si="0">I2&amp;A2&amp;B2&amp;G2&amp;B2&amp;A2&amp;B2&amp;G2&amp;B2&amp;K2&amp;B2&amp;L2</f>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('id','id','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('title','title','required');</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>13</v>
@@ -1220,7 +1248,7 @@
       </c>
       <c r="S2" s="4" t="str">
         <f>O2&amp;Q2&amp;A2&amp;R2&amp;P2</f>
-        <v>Value="&lt;?= $item[0]-&gt;id;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;title;?&gt;"</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>17</v>
@@ -1230,15 +1258,15 @@
       </c>
       <c r="Z2" s="4" t="str">
         <f>X2&amp;A2&amp;Y2</f>
-        <v>&lt;th&gt;id&lt;/th&gt;</v>
+        <v>&lt;th&gt;title&lt;/th&gt;</v>
       </c>
       <c r="AC2" s="4" t="str">
         <f t="shared" ref="AC2:AC9" si="1">B2&amp;A2&amp;B2&amp;":"&amp;"{ required:true},"</f>
-        <v>'id':{ required:true},</v>
+        <v>'title':{ required:true},</v>
       </c>
       <c r="AG2" s="4" t="str">
         <f>B2&amp;A2&amp;B2&amp;":"&amp;AJ2&amp;"'This field is required'"&amp;AK2</f>
-        <v>'id':{ required :'This field is required'},</v>
+        <v>'title':{ required :'This field is required'},</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>63</v>
@@ -1249,7 +1277,7 @@
     </row>
     <row r="3" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1267,8 +1295,8 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H24" si="2">B3&amp;A3&amp;B3&amp;C3&amp;D3&amp;A3&amp;F3&amp;G3</f>
-        <v>'tblnum'=&gt;$this-&gt;input-&gt;post('tblnum'),</v>
+        <f t="shared" ref="H3:H23" si="2">B3&amp;A3&amp;B3&amp;C3&amp;D3&amp;A3&amp;F3&amp;G3</f>
+        <v>'firstname'=&gt;$this-&gt;input-&gt;post('firstname'),</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>5</v>
@@ -1282,7 +1310,7 @@
       </c>
       <c r="M3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('tblnum','tblnum','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('firstname','firstname','required');</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>13</v>
@@ -1298,7 +1326,7 @@
       </c>
       <c r="S3" s="4" t="str">
         <f t="shared" ref="S3:S9" si="3">O3&amp;Q3&amp;A3&amp;R3&amp;P3</f>
-        <v>Value="&lt;?= $item[0]-&gt;tblnum;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;firstname;?&gt;"</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>17</v>
@@ -1308,15 +1336,15 @@
       </c>
       <c r="Z3" s="4" t="str">
         <f t="shared" ref="Z3:Z9" si="4">X3&amp;A3&amp;Y3</f>
-        <v>&lt;th&gt;tblnum&lt;/th&gt;</v>
+        <v>&lt;th&gt;firstname&lt;/th&gt;</v>
       </c>
       <c r="AC3" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'tblnum':{ required:true},</v>
+        <v>'firstname':{ required:true},</v>
       </c>
       <c r="AG3" s="4" t="str">
-        <f t="shared" ref="AG3:AG24" si="5">B3&amp;A3&amp;B3&amp;":"&amp;AJ3&amp;"'This field is required'"&amp;AK3</f>
-        <v>'tblnum':{ required :'This field is required'},</v>
+        <f t="shared" ref="AG3:AG23" si="5">B3&amp;A3&amp;B3&amp;":"&amp;AJ3&amp;"'This field is required'"&amp;AK3</f>
+        <v>'firstname':{ required :'This field is required'},</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>63</v>
@@ -1327,7 +1355,7 @@
     </row>
     <row r="4" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1346,7 +1374,7 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>'seats'=&gt;$this-&gt;input-&gt;post('seats'),</v>
+        <v>'lastname'=&gt;$this-&gt;input-&gt;post('lastname'),</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>5</v>
@@ -1360,7 +1388,7 @@
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('seats','seats','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('lastname','lastname','required');</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>13</v>
@@ -1376,7 +1404,7 @@
       </c>
       <c r="S4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Value="&lt;?= $item[0]-&gt;seats;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;lastname;?&gt;"</v>
       </c>
       <c r="X4" s="4" t="s">
         <v>17</v>
@@ -1386,15 +1414,15 @@
       </c>
       <c r="Z4" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;th&gt;seats&lt;/th&gt;</v>
+        <v>&lt;th&gt;lastname&lt;/th&gt;</v>
       </c>
       <c r="AC4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'seats':{ required:true},</v>
+        <v>'lastname':{ required:true},</v>
       </c>
       <c r="AG4" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'seats':{ required :'This field is required'},</v>
+        <v>'lastname':{ required :'This field is required'},</v>
       </c>
       <c r="AJ4" s="4" t="s">
         <v>63</v>
@@ -1405,7 +1433,7 @@
     </row>
     <row r="5" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>0</v>
@@ -1424,7 +1452,7 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>'status'=&gt;$this-&gt;input-&gt;post('status'),</v>
+        <v>'gender'=&gt;$this-&gt;input-&gt;post('gender'),</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>5</v>
@@ -1438,7 +1466,7 @@
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('status','status','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('gender','gender','required');</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>13</v>
@@ -1454,7 +1482,7 @@
       </c>
       <c r="S5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Value="&lt;?= $item[0]-&gt;status;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;gender;?&gt;"</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>17</v>
@@ -1464,15 +1492,15 @@
       </c>
       <c r="Z5" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;th&gt;status&lt;/th&gt;</v>
+        <v>&lt;th&gt;gender&lt;/th&gt;</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'status':{ required:true},</v>
+        <v>'gender':{ required:true},</v>
       </c>
       <c r="AG5" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'status':{ required :'This field is required'},</v>
+        <v>'gender':{ required :'This field is required'},</v>
       </c>
       <c r="AJ5" s="4" t="s">
         <v>63</v>
@@ -1483,7 +1511,7 @@
     </row>
     <row r="6" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -1502,7 +1530,7 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>'cat'=&gt;$this-&gt;input-&gt;post('cat'),</v>
+        <v>'address'=&gt;$this-&gt;input-&gt;post('address'),</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>5</v>
@@ -1516,7 +1544,7 @@
       </c>
       <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('cat','cat','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('address','address','required');</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>13</v>
@@ -1532,7 +1560,7 @@
       </c>
       <c r="S6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Value="&lt;?= $item[0]-&gt;cat;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;address;?&gt;"</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>17</v>
@@ -1542,15 +1570,15 @@
       </c>
       <c r="Z6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;th&gt;cat&lt;/th&gt;</v>
+        <v>&lt;th&gt;address&lt;/th&gt;</v>
       </c>
       <c r="AC6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'cat':{ required:true},</v>
+        <v>'address':{ required:true},</v>
       </c>
       <c r="AG6" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'cat':{ required :'This field is required'},</v>
+        <v>'address':{ required :'This field is required'},</v>
       </c>
       <c r="AJ6" s="4" t="s">
         <v>63</v>
@@ -1560,7 +1588,9 @@
       </c>
     </row>
     <row r="7" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1608,7 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'city'=&gt;$this-&gt;input-&gt;post('city'),</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>5</v>
@@ -1592,7 +1622,7 @@
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('city','city','required');</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>13</v>
@@ -1608,7 +1638,7 @@
       </c>
       <c r="S7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;city;?&gt;"</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>17</v>
@@ -1618,15 +1648,15 @@
       </c>
       <c r="Z7" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;city&lt;/th&gt;</v>
       </c>
       <c r="AC7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'':{ required:true},</v>
+        <v>'city':{ required:true},</v>
       </c>
       <c r="AG7" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':{ required :'This field is required'},</v>
+        <v>'city':{ required :'This field is required'},</v>
       </c>
       <c r="AJ7" s="4" t="s">
         <v>63</v>
@@ -1636,7 +1666,9 @@
       </c>
     </row>
     <row r="8" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1686,7 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'mobile'=&gt;$this-&gt;input-&gt;post('mobile'),</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>5</v>
@@ -1668,7 +1700,7 @@
       </c>
       <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('mobile','mobile','required');</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>13</v>
@@ -1684,7 +1716,7 @@
       </c>
       <c r="S8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;mobile;?&gt;"</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>17</v>
@@ -1694,15 +1726,15 @@
       </c>
       <c r="Z8" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;mobile&lt;/th&gt;</v>
       </c>
       <c r="AC8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'':{ required:true},</v>
+        <v>'mobile':{ required:true},</v>
       </c>
       <c r="AG8" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':{ required :'This field is required'},</v>
+        <v>'mobile':{ required :'This field is required'},</v>
       </c>
       <c r="AJ8" s="4" t="s">
         <v>63</v>
@@ -1712,7 +1744,9 @@
       </c>
     </row>
     <row r="9" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1764,7 @@
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'nationality'=&gt;$this-&gt;input-&gt;post('nationality'),</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>5</v>
@@ -1744,7 +1778,7 @@
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('nationality','nationality','required');</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>13</v>
@@ -1760,7 +1794,7 @@
       </c>
       <c r="S9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;nationality;?&gt;"</v>
       </c>
       <c r="X9" s="4" t="s">
         <v>17</v>
@@ -1770,15 +1804,15 @@
       </c>
       <c r="Z9" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;nationality&lt;/th&gt;</v>
       </c>
       <c r="AC9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'':{ required:true},</v>
+        <v>'nationality':{ required:true},</v>
       </c>
       <c r="AG9" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':{ required :'This field is required'},</v>
+        <v>'nationality':{ required :'This field is required'},</v>
       </c>
       <c r="AJ9" s="4" t="s">
         <v>63</v>
@@ -1788,6 +1822,9 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1842,7 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'identityType'=&gt;$this-&gt;input-&gt;post('identityType'),</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>5</v>
@@ -1817,8 +1854,8 @@
         <v>7</v>
       </c>
       <c r="M10" s="4" t="str">
-        <f t="shared" ref="M10:M24" si="6">I10&amp;A10&amp;B10&amp;G10&amp;B10&amp;A10&amp;B10&amp;G10&amp;B10&amp;K10&amp;B10&amp;L10</f>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <f t="shared" ref="M10:M23" si="6">I10&amp;A10&amp;B10&amp;G10&amp;B10&amp;A10&amp;B10&amp;G10&amp;B10&amp;K10&amp;B10&amp;L10</f>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('identityType','identityType','required');</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
@@ -1834,8 +1871,8 @@
         <v>12</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f t="shared" ref="S10:S24" si="7">O10&amp;Q10&amp;A10&amp;R10&amp;P10</f>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <f t="shared" ref="S10:S23" si="7">O10&amp;Q10&amp;A10&amp;R10&amp;P10</f>
+        <v>Value="&lt;?= $item[0]-&gt;identityType;?&gt;"</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -1848,21 +1885,21 @@
         <v>18</v>
       </c>
       <c r="Z10" s="4" t="str">
-        <f t="shared" ref="Z10:Z24" si="8">X10&amp;A10&amp;Y10</f>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <f t="shared" ref="Z10:Z23" si="8">X10&amp;A10&amp;Y10</f>
+        <v>&lt;th&gt;identityType&lt;/th&gt;</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4" t="str">
-        <f t="shared" ref="AC10:AC24" si="9">B10&amp;A10&amp;B10&amp;":"&amp;"{ required:true},"</f>
-        <v>'':{ required:true},</v>
+        <f t="shared" ref="AC10:AC23" si="9">B10&amp;A10&amp;B10&amp;":"&amp;"{ required:true},"</f>
+        <v>'identityType':{ required:true},</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':{ required :'This field is required'},</v>
+        <v>'identityType':{ required :'This field is required'},</v>
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -1874,6 +1911,9 @@
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1931,7 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'identityNo'=&gt;$this-&gt;input-&gt;post('identityNo'),</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>5</v>
@@ -1904,7 +1944,7 @@
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('identityNo','identityNo','required');</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
@@ -1921,7 +1961,7 @@
       </c>
       <c r="S11" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;identityNo;?&gt;"</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
@@ -1935,20 +1975,20 @@
       </c>
       <c r="Z11" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;identityNo&lt;/th&gt;</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>'':{ required:true},</v>
+        <v>'identityNo':{ required:true},</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':{ required :'This field is required'},</v>
+        <v>'identityNo':{ required :'This field is required'},</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -1960,6 +2000,9 @@
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +2020,7 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'bookingno '=&gt;$this-&gt;input-&gt;post('bookingno '),</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>5</v>
@@ -1990,7 +2033,7 @@
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('bookingno ','bookingno ','required');</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
@@ -2007,7 +2050,7 @@
       </c>
       <c r="S12" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;bookingno ;?&gt;"</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -2021,26 +2064,29 @@
       </c>
       <c r="Z12" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;bookingno &lt;/th&gt;</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>'':{ required:true},</v>
+        <v>'bookingno ':{ required:true},</v>
       </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':'This field is required'</v>
+        <v>'bookingno ':'This field is required'</v>
       </c>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2104,7 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'chkin_date '=&gt;$this-&gt;input-&gt;post('chkin_date '),</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>5</v>
@@ -2071,7 +2117,7 @@
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('chkin_date ','chkin_date ','required');</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
@@ -2088,7 +2134,7 @@
       </c>
       <c r="S13" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;chkin_date ;?&gt;"</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -2102,26 +2148,29 @@
       </c>
       <c r="Z13" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;chkin_date &lt;/th&gt;</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>'':{ required:true},</v>
+        <v>'chkin_date ':{ required:true},</v>
       </c>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':'This field is required'</v>
+        <v>'chkin_date ':'This field is required'</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2188,7 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'chkout_date '=&gt;$this-&gt;input-&gt;post('chkout_date '),</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>5</v>
@@ -2152,7 +2201,7 @@
       </c>
       <c r="M14" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('chkout_date ','chkout_date ','required');</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
@@ -2169,7 +2218,7 @@
       </c>
       <c r="S14" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;chkout_date ;?&gt;"</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -2183,26 +2232,29 @@
       </c>
       <c r="Z14" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;chkout_date &lt;/th&gt;</v>
       </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>'':{ required:true},</v>
+        <v>'chkout_date ':{ required:true},</v>
       </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':'This field is required'</v>
+        <v>'chkout_date ':'This field is required'</v>
       </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>0</v>
       </c>
@@ -2220,7 +2272,7 @@
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'guest_id'=&gt;$this-&gt;input-&gt;post('guest_id'),</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>5</v>
@@ -2233,7 +2285,7 @@
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('guest_id','guest_id','required');</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
@@ -2250,7 +2302,7 @@
       </c>
       <c r="S15" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;guest_id;?&gt;"</v>
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
@@ -2264,26 +2316,29 @@
       </c>
       <c r="Z15" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;guest_id&lt;/th&gt;</v>
       </c>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>'':{ required:true},</v>
+        <v>'guest_id':{ required:true},</v>
       </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':'This field is required'</v>
+        <v>'guest_id':'This field is required'</v>
       </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>155</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2356,7 @@
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'id '=&gt;$this-&gt;input-&gt;post('id '),</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>5</v>
@@ -2314,7 +2369,7 @@
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('id ','id ','required');</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
@@ -2331,7 +2386,7 @@
       </c>
       <c r="S16" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;id ;?&gt;"</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -2345,26 +2400,29 @@
       </c>
       <c r="Z16" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;id &lt;/th&gt;</v>
       </c>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>'':{ required:true},</v>
+        <v>'id ':{ required:true},</v>
       </c>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':'This field is required'</v>
+        <v>'id ':'This field is required'</v>
       </c>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
@@ -2382,7 +2440,7 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'modified_date '=&gt;$this-&gt;input-&gt;post('modified_date '),</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>5</v>
@@ -2395,7 +2453,7 @@
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('modified_date ','modified_date ','required');</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
@@ -2412,7 +2470,7 @@
       </c>
       <c r="S17" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;modified_date ;?&gt;"</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -2426,26 +2484,29 @@
       </c>
       <c r="Z17" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;modified_date &lt;/th&gt;</v>
       </c>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>'':{ required:true},</v>
+        <v>'modified_date ':{ required:true},</v>
       </c>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':'This field is required'</v>
+        <v>'modified_date ':'This field is required'</v>
       </c>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2524,7 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'mofified_By'=&gt;$this-&gt;input-&gt;post('mofified_By'),</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>5</v>
@@ -2476,7 +2537,7 @@
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('mofified_By','mofified_By','required');</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
@@ -2493,7 +2554,7 @@
       </c>
       <c r="S18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;mofified_By;?&gt;"</v>
       </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
@@ -2507,26 +2568,29 @@
       </c>
       <c r="Z18" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;mofified_By&lt;/th&gt;</v>
       </c>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>'':{ required:true},</v>
+        <v>'mofified_By':{ required:true},</v>
       </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':'This field is required'</v>
+        <v>'mofified_By':'This field is required'</v>
       </c>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2608,7 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
+        <v>'room_no'=&gt;$this-&gt;input-&gt;post('room_no'),</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>5</v>
@@ -2557,7 +2621,7 @@
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
+        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('room_no','room_no','required');</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
@@ -2574,7 +2638,7 @@
       </c>
       <c r="S19" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
+        <v>Value="&lt;?= $item[0]-&gt;room_no;?&gt;"</v>
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -2588,26 +2652,26 @@
       </c>
       <c r="Z19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
+        <v>&lt;th&gt;room_no&lt;/th&gt;</v>
       </c>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>'':{ required:true},</v>
+        <v>'room_no':{ required:true},</v>
       </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>'':'This field is required'</v>
+        <v>'room_no':'This field is required'</v>
       </c>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +2752,7 @@
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +2833,7 @@
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
@@ -2850,7 +2914,7 @@
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>0</v>
       </c>
@@ -2931,89 +2995,8 @@
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>''=&gt;$this-&gt;input-&gt;post(''),</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> $this-&gt;form_validation-&gt;set_rules('','','required');</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>Value="&lt;?= $item[0]-&gt;;?&gt;"</v>
-      </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z24" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;th&gt;&lt;/th&gt;</v>
-      </c>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>'':{ required:true},</v>
-      </c>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>'':'This field is required'</v>
-      </c>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
         <v>49</v>
       </c>
     </row>
